--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2371202.120795498</v>
+        <v>2368806.464790319</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>42.76734719401195</v>
       </c>
       <c r="D2" t="n">
-        <v>75.02170156167799</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
@@ -677,7 +677,7 @@
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.98684581339548</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>114.7793764994862</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>97.91619205212849</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>183.0901349234346</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
@@ -914,7 +914,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767976</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.9354087744531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>19.05685276671081</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>181.16775846541</v>
+        <v>5.938671778664991</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>321.5313062715316</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>126.4734099989309</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>181.0919561226081</v>
+        <v>228.7071364731965</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>39.52129633183122</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>100.5858322992699</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>59.452825597604</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.74785292486213</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141623</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1652.520361908887</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="C2" t="n">
-        <v>1652.520361908887</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="D2" t="n">
-        <v>1576.74086538194</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.952612783695</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>779.9667079940879</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859625</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974718</v>
+        <v>776.0043429178248</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156638</v>
+        <v>1013.627124136017</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.292041673267</v>
+        <v>1309.69769069362</v>
       </c>
       <c r="N2" t="n">
-        <v>1447.767147908852</v>
+        <v>1950.720900313514</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.860256443059</v>
+        <v>2225.837119630148</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2426.141446919251</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2336.351904522572</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2005.289017179001</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1652.520361908887</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1652.520361908887</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1652.520361908887</v>
+        <v>925.3036175845675</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
         <v>85.9974213009382</v>
@@ -4416,16 +4416,16 @@
         <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>1620.270317882293</v>
+        <v>1512.968691787245</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315626</v>
+        <v>1798.302562220578</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>2037.107513972037</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1101.636343840552</v>
+        <v>314.6285669616252</v>
       </c>
       <c r="C4" t="n">
-        <v>932.7001609126449</v>
+        <v>314.6285669616252</v>
       </c>
       <c r="D4" t="n">
-        <v>782.5835215003092</v>
+        <v>314.6285669616252</v>
       </c>
       <c r="E4" t="n">
-        <v>634.6704279179161</v>
+        <v>314.6285669616252</v>
       </c>
       <c r="F4" t="n">
-        <v>487.7804804200057</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131296</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="H4" t="n">
         <v>167.7386194637149</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702568</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1193.542248702568</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>1193.542248702568</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="V4" t="n">
-        <v>1193.542248702568</v>
+        <v>496.2770317918649</v>
       </c>
       <c r="W4" t="n">
-        <v>1193.542248702568</v>
+        <v>496.2770317918649</v>
       </c>
       <c r="X4" t="n">
-        <v>1193.542248702568</v>
+        <v>496.2770317918649</v>
       </c>
       <c r="Y4" t="n">
-        <v>1193.542248702568</v>
+        <v>496.2770317918649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2134.752698217159</v>
+        <v>1598.49297013392</v>
       </c>
       <c r="C5" t="n">
-        <v>1765.790181276747</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="D5" t="n">
-        <v>1407.524482669997</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="E5" t="n">
-        <v>1021.736230071753</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F5" t="n">
         <v>836.796699846061</v>
@@ -4562,16 +4562,16 @@
         <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
         <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4583,34 +4583,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.81558556073</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.752698217159</v>
+        <v>2362.098060370812</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.752698217159</v>
+        <v>2362.098060370812</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.752698217159</v>
+        <v>1988.632302109732</v>
       </c>
       <c r="Y5" t="n">
-        <v>2134.752698217159</v>
+        <v>1598.49297013392</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096208</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
         <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291481</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2121.82748176711</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.7426251609727</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="C7" t="n">
-        <v>348.8064422330658</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D7" t="n">
-        <v>198.6898028207301</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225442</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317419</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750633</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T7" t="n">
-        <v>1463.985934330231</v>
+        <v>1342.413983554585</v>
       </c>
       <c r="U7" t="n">
-        <v>1174.86815734063</v>
+        <v>1053.296206564983</v>
       </c>
       <c r="V7" t="n">
-        <v>920.1836691347426</v>
+        <v>798.611718359096</v>
       </c>
       <c r="W7" t="n">
-        <v>920.1836691347426</v>
+        <v>798.611718359096</v>
       </c>
       <c r="X7" t="n">
-        <v>920.1836691347426</v>
+        <v>570.6221674610787</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.3910899912124</v>
+        <v>349.8295883175485</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1847.084778895059</v>
+        <v>890.6280335193146</v>
       </c>
       <c r="C8" t="n">
-        <v>1522.305681651088</v>
+        <v>521.6655165789028</v>
       </c>
       <c r="D8" t="n">
-        <v>1164.039983044337</v>
+        <v>521.6655165789028</v>
       </c>
       <c r="E8" t="n">
-        <v>778.251730446093</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2658256564855</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>51.7998553228197</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104773</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135505</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4820,34 +4820,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140985</v>
+        <v>2338.064666369891</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140985</v>
+        <v>2338.064666369891</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140985</v>
+        <v>2007.00177902632</v>
       </c>
       <c r="W8" t="n">
-        <v>2237.224110870871</v>
+        <v>1654.233123756206</v>
       </c>
       <c r="X8" t="n">
-        <v>2237.224110870871</v>
+        <v>1280.767365495126</v>
       </c>
       <c r="Y8" t="n">
-        <v>1847.084778895059</v>
+        <v>890.6280335193146</v>
       </c>
     </row>
     <row r="9">
@@ -4866,37 +4866,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
         <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682815</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845962</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.385170476922</v>
+        <v>965.5645858344687</v>
       </c>
       <c r="N9" t="n">
-        <v>1617.794731802664</v>
+        <v>1606.587795454363</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.723412518195</v>
+        <v>1941.516476169894</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.6319074814764</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="C10" t="n">
-        <v>664.6957245535696</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5790851412338</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609303</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G10" t="n">
-        <v>51.7998553228197</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
@@ -4990,22 +4990,22 @@
         <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>1134.931318706258</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>880.2468305003707</v>
       </c>
       <c r="W10" t="n">
-        <v>1464.062502353264</v>
+        <v>649.2295209314854</v>
       </c>
       <c r="X10" t="n">
-        <v>1236.072951455246</v>
+        <v>421.239970033468</v>
       </c>
       <c r="Y10" t="n">
-        <v>1015.280372311716</v>
+        <v>200.4473908899379</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,10 +5054,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,19 +5413,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5601,19 +5601,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5887,19 +5887,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>215.8238677453423</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>215.8238677453423</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>444.7013164925216</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>444.7013164925216</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>277.5052172074016</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179085</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>593.6115863900017</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>443.4949469776659</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>295.5818533952728</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>295.5818533952728</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659682</v>
       </c>
       <c r="O2" t="n">
-        <v>248.4615042601745</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>62.22611909361538</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>196.3826133675374</v>
+        <v>87.99713246344891</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>173.7639243740406</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>309.1863928326898</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>74.65481927719975</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906581</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,13 +8541,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>253.1450992870218</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>245.46701043772</v>
+        <v>256.7871481632769</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-1.091083191524911e-12</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>100.7734165143927</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>106.0713126946648</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982127</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982124</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
@@ -26353,7 +26353,7 @@
         <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898922</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695073</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695069</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="H4" t="n">
-        <v>6287.480531695059</v>
-      </c>
       <c r="I4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695058</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695056</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695039</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695034</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695011</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26470,10 +26470,10 @@
         <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-573032.5221893371</v>
+        <v>-573032.5221893366</v>
       </c>
       <c r="C6" t="n">
-        <v>220469.1235215624</v>
+        <v>220469.1235215625</v>
       </c>
       <c r="D6" t="n">
         <v>393233.4833114547</v>
       </c>
       <c r="E6" t="n">
-        <v>-2938.928333848642</v>
+        <v>-2973.666259284146</v>
       </c>
       <c r="F6" t="n">
-        <v>497949.9394119022</v>
+        <v>497915.2014864663</v>
       </c>
       <c r="G6" t="n">
-        <v>497949.9394119019</v>
+        <v>497915.2014864665</v>
       </c>
       <c r="H6" t="n">
-        <v>497949.9394119022</v>
+        <v>497915.2014864661</v>
       </c>
       <c r="I6" t="n">
-        <v>497949.9394119019</v>
+        <v>497915.2014864666</v>
       </c>
       <c r="J6" t="n">
-        <v>328535.922585854</v>
+        <v>328501.1846604184</v>
       </c>
       <c r="K6" t="n">
-        <v>497949.939411902</v>
+        <v>497915.2014864663</v>
       </c>
       <c r="L6" t="n">
-        <v>497949.939411902</v>
+        <v>497915.2014864663</v>
       </c>
       <c r="M6" t="n">
-        <v>367065.4825076666</v>
+        <v>367030.7445822314</v>
       </c>
       <c r="N6" t="n">
-        <v>497949.939411902</v>
+        <v>497915.2014864663</v>
       </c>
       <c r="O6" t="n">
-        <v>497949.939411902</v>
+        <v>497915.2014864663</v>
       </c>
       <c r="P6" t="n">
-        <v>497949.9394119022</v>
+        <v>497915.2014864663</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498444</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498445</v>
@@ -26790,10 +26790,10 @@
         <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522336</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>322.5055445769956</v>
       </c>
       <c r="D2" t="n">
-        <v>279.6613400590049</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.84513436854182</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>154.2214512716995</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>223.7859108182768</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>308.6954057034241</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>39.5374702480284</v>
+        <v>214.7665569347734</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>43.74158549947595</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>80.08549594682979</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28062,16 +28062,16 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>105.4310422139829</v>
+        <v>57.8158618633945</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-4.137378184557301e-13</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31279,7 +31279,7 @@
         <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
@@ -31291,28 +31291,28 @@
         <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.151623085328</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839331</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
         <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179229</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837062</v>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31370,16 +31370,16 @@
         <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973637</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274805</v>
@@ -31388,7 +31388,7 @@
         <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
         <v>37.54392985284989</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
@@ -31449,7 +31449,7 @@
         <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979551</v>
@@ -31467,13 +31467,13 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.24036071484306</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
         <v>0.0924301367852307</v>
@@ -31844,10 +31844,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
         <v>487.5747176873218</v>
@@ -34708,16 +34708,16 @@
         <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>526.356675287078</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>165.5063830522568</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>462.988200736717</v>
+        <v>354.6027198326285</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
@@ -34793,10 +34793,10 @@
         <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153407</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873422</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.7162976096198</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>543.7698733561874</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131502</v>
+        <v>326.65151409035</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978359</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
         <v>279.5237680912597</v>
@@ -35252,7 +35252,7 @@
         <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35261,13 +35261,13 @@
         <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O9" t="n">
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>497.4637052508702</v>
+        <v>508.7838429764271</v>
       </c>
       <c r="Q9" t="n">
         <v>118.0296862297622</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35647,7 +35647,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
